--- a/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1.xlsx
+++ b/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1.xlsx
@@ -8,113 +8,67 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\Курс 3\МО\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6EDF0-E243-4C80-9978-201C83A77769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BBB246-A080-4CBF-9628-2D5F0FF3A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёты" sheetId="3" r:id="rId1"/>
     <sheet name="Ситуация 1. Без изменения цен" sheetId="4" r:id="rId2"/>
-    <sheet name="Ситуация 2. С изменением цен" sheetId="5" r:id="rId3"/>
-    <sheet name="Переменные" sheetId="2" r:id="rId4"/>
+    <sheet name="Переменные" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$G$18:$H$18</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$G$18:$H$18,'Ситуация 2. С изменением цен'!$G$22:$H$22</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$17</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$17</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$18</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$19</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$19</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$20</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$20</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$21</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$21</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$22</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$22</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$23</definedName>
-    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$24</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$23</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$24</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$22</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$B$22</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$17</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$18</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$18</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$19</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$19</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$20</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$20</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$21</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$21</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$22</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$22</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$23</definedName>
-    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Ситуация 2. С изменением цен'!$D$24</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$23</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$24</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
   <si>
     <t>Исходные показатели</t>
   </si>
@@ -557,6 +511,9 @@
   </si>
   <si>
     <t>кг. / день</t>
+  </si>
+  <si>
+    <t>Маржинальная прибыль</t>
   </si>
 </sst>
 </file>
@@ -731,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -767,11 +724,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,21 +732,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1094,16 +1052,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="13"/>
       <c r="K1" s="13" t="s">
         <v>126</v>
@@ -1128,7 +1086,7 @@
         <v>104</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -1206,7 +1164,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B4" s="13">
@@ -1260,15 +1218,15 @@
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="13"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>122</v>
       </c>
       <c r="G6" s="13">
@@ -1316,7 +1274,7 @@
       <c r="D8" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -1330,11 +1288,11 @@
         <v>127</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="21" t="s">
         <v>125</v>
       </c>
       <c r="O8" s="22"/>
-      <c r="P8" s="18"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F9" s="13" t="s">
@@ -1362,22 +1320,21 @@
         <f>N6*Переменные!R4*Переменные!R5</f>
         <v>480</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="21"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="13"/>
       <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <f>Переменные!R31 / N9 * Переменные!R23</f>
         <v>1</v>
       </c>
@@ -1390,7 +1347,6 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
       <c r="B11" s="13" t="s">
         <v>103</v>
       </c>
@@ -1414,7 +1370,6 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
       <c r="B12" s="13">
         <v>32</v>
       </c>
@@ -1440,11 +1395,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G13" s="13">
@@ -1460,13 +1411,13 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="G16" t="s">
         <v>103</v>
       </c>
@@ -1604,14 +1555,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B23" s="13">
         <f>B12</f>
         <v>32</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="13">
@@ -1623,14 +1574,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B24" s="13">
         <f>C12</f>
         <v>24.5</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D24" s="13">
@@ -1643,12 +1594,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N8:P8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1658,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F0BCF-D22A-4815-A489-63459313543D}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,16 +1621,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="13"/>
       <c r="K1" s="13" t="s">
         <v>126</v>
@@ -1704,7 +1655,7 @@
         <v>104</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -1782,9 +1733,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="A4" s="14"/>
       <c r="B4" s="13">
         <f>Переменные!R9</f>
         <v>200</v>
@@ -1836,7 +1785,7 @@
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>122</v>
       </c>
       <c r="G6" s="13">
@@ -1866,7 +1815,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -1880,11 +1829,11 @@
         <v>127</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="21" t="s">
         <v>125</v>
       </c>
       <c r="O8" s="22"/>
-      <c r="P8" s="18"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F9" s="13" t="s">
@@ -1912,16 +1861,16 @@
         <f>N6*Переменные!R4*Переменные!R5</f>
         <v>480</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="21"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <f>Переменные!R31 / N9 * Переменные!R23</f>
         <v>1</v>
       </c>
@@ -1966,11 +1915,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G13" s="13">
@@ -1986,20 +1931,20 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2008,7 +1953,7 @@
       </c>
       <c r="B17" s="13">
         <f>G18</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>132</v>
@@ -2030,7 +1975,7 @@
       </c>
       <c r="B18" s="13">
         <f>H18</f>
-        <v>60.000000000000007</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>133</v>
@@ -2039,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H18" s="13">
-        <v>60.000000000000007</v>
+        <v>12</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>134</v>
@@ -2054,7 +1999,7 @@
       </c>
       <c r="B19" s="13">
         <f>G18*L2+H18*M2</f>
-        <v>120.00000000000001</v>
+        <v>119</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>131</v>
@@ -2070,7 +2015,7 @@
       </c>
       <c r="B20" s="13">
         <f>G18*L3+H18*M3</f>
-        <v>60.000000000000007</v>
+        <v>202</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>131</v>
@@ -2079,12 +2024,9 @@
         <f>N3</f>
         <v>280</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
@@ -2092,7 +2034,7 @@
       </c>
       <c r="B21" s="13">
         <f>G18*(G6+G13) + H18*(H6+H13)</f>
-        <v>918.00000000000011</v>
+        <v>2425.6</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>131</v>
@@ -2101,22 +2043,17 @@
         <f>K9</f>
         <v>2440</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="13"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="13">
-        <f>G18*G22 +H18*H22-B21</f>
-        <v>552.00000000000011</v>
+        <f>G18*B3 - G18*(G6+G13) +H18*C3-H18*(H6+H13)</f>
+        <v>908.4</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>133</v>
@@ -2125,26 +2062,25 @@
         <f>K6</f>
         <v>90</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="13">
-        <v>32</v>
-      </c>
-      <c r="H22" s="13">
-        <v>24.5</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="F22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="25">
+        <f>G18*(B3-G6)-G13 + H18*(C3-H6)-H13</f>
+        <v>1067.6000000000001</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>137</v>
+      <c r="A23" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="B23" s="13">
-        <f>G22</f>
-        <v>32</v>
-      </c>
-      <c r="C23" s="16" t="s">
+        <f>G18</f>
+        <v>95</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="13">
@@ -2153,14 +2089,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>138</v>
+      <c r="A24" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="B24" s="13">
-        <f>H22</f>
-        <v>24.5</v>
-      </c>
-      <c r="C24" s="16" t="s">
+        <f>H18</f>
+        <v>12</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D24" s="13">
@@ -2182,538 +2118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8D5466-11DC-4256-BB6C-376A55ABCBBD}">
-  <dimension ref="A1:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="F2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="K2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="13">
-        <f>Переменные!R13</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="13">
-        <f>Переменные!R14</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="13">
-        <f>Переменные!R17</f>
-        <v>120</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="13">
-        <f>Переменные!R7</f>
-        <v>32</v>
-      </c>
-      <c r="C3" s="13">
-        <f>Переменные!R8</f>
-        <v>24.5</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="13">
-        <f>Переменные!R11*Переменные!R13 + Переменные!R11*Переменные!R14</f>
-        <v>9</v>
-      </c>
-      <c r="H3" s="13">
-        <f>Переменные!R12*Переменные!R15 + Переменные!R12*Переменные!R16</f>
-        <v>6</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="13">
-        <f>Переменные!R15</f>
-        <v>2</v>
-      </c>
-      <c r="M3" s="13">
-        <f>Переменные!R16</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="13">
-        <f>Переменные!R18</f>
-        <v>280</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="13">
-        <f>Переменные!R9</f>
-        <v>200</v>
-      </c>
-      <c r="C4" s="13">
-        <f>Переменные!R10</f>
-        <v>50</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="13">
-        <f>Переменные!R19*Переменные!R21</f>
-        <v>12</v>
-      </c>
-      <c r="H4" s="13">
-        <f>Переменные!R20*Переменные!R21</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F5" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="13">
-        <f>Переменные!R27*Переменные!R29</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <f>Переменные!R28*Переменные!R29</f>
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="N5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(G3:G5)</f>
-        <v>22</v>
-      </c>
-      <c r="H6" s="13">
-        <f>SUM(H3:H5)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="13">
-        <f>Переменные!R3</f>
-        <v>90</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="13">
-        <f>Переменные!R2</f>
-        <v>20</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="N8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="13">
-        <f>Переменные!R30*Переменные!R29/N9*Переменные!R23</f>
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="13">
-        <f>Переменные!R30*Переменные!R29/Расчёты!N9*Переменные!R24</f>
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="13">
-        <f>Переменные!R22</f>
-        <v>2440</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="13">
-        <f>N6*Переменные!R4*Переменные!R5</f>
-        <v>480</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="19">
-        <f>Переменные!R31 / N9 * Переменные!R23</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <f>Переменные!R31 / Расчёты!N9 * Переменные!R24</f>
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="13">
-        <f>Переменные!R32 / Расчёты!N9 * Переменные!R23</f>
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="13">
-        <f>Переменные!R32 / Расчёты!N9 *Переменные!R24</f>
-        <v>0.15</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="13">
-        <f>Переменные!R33 / Расчёты!N9 * Переменные!R23</f>
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="13">
-        <f>Переменные!R33 / Расчёты!N9 * Переменные!R24</f>
-        <v>0.05</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="F13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="13">
-        <f>SUM(G9:G12)</f>
-        <v>1.6</v>
-      </c>
-      <c r="H13" s="13">
-        <f>SUM(H9:H12)</f>
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="13">
-        <f>G18</f>
-        <v>69.318181691845723</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="13">
-        <f>H18</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>69.318181691845723</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="13">
-        <f>G18*L2+H18*M2</f>
-        <v>69.318181691845723</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="13">
-        <f>N2</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="13">
-        <f>G18*L3+H18*M3</f>
-        <v>138.63636338369145</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="13">
-        <f>N3</f>
-        <v>280</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="13">
-        <f>G6*G18*G13 + H18*H6*H13</f>
-        <v>2439.9999955529697</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="13">
-        <f>K9</f>
-        <v>2440</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="13">
-        <f>G18*G22 +H18*H22-B21</f>
-        <v>11423.636342816175</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="13">
-        <f>K6</f>
-        <v>90</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="13">
-        <v>200</v>
-      </c>
-      <c r="H22" s="13">
-        <v>50.000024499999995</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="13">
-        <f>G22</f>
-        <v>200</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="13">
-        <f>B4</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="13">
-        <f>H22</f>
-        <v>50.000024499999995</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="13">
-        <f>C4</f>
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A16:C16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE5B83-6808-4823-8483-CC874B6076B2}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1.xlsx
+++ b/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1.xlsx
@@ -8,57 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\Курс 3\МО\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BBB246-A080-4CBF-9628-2D5F0FF3A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5723F-ED53-4B56-B34F-6FEA72CE2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёты" sheetId="3" r:id="rId1"/>
-    <sheet name="Ситуация 1. Без изменения цен" sheetId="4" r:id="rId2"/>
+    <sheet name="Ситуация 1. Бухгалтерская" sheetId="4" r:id="rId2"/>
     <sheet name="Переменные" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$G$18:$H$18</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$G$18:$H$18</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$20</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$21</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$22</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$23</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$24</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$20</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$23</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$24</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$24</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$B$22</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!#REF!</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$18</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$19</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$20</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$21</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$22</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$23</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Ситуация 1. Без изменения цен'!$D$24</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$18</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$19</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$20</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$22</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$23</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$24</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$24</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="144">
   <si>
     <t>Исходные показатели</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>Маржинальная прибыль</t>
+  </si>
+  <si>
+    <t>Бухгалтерская прибыль</t>
+  </si>
+  <si>
+    <t>Маржинальная прибыль по машино часам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                        </t>
   </si>
 </sst>
 </file>
@@ -688,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -733,12 +742,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,10 +751,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1052,16 +1060,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="13"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="13"/>
       <c r="K1" s="13" t="s">
         <v>126</v>
@@ -1221,10 +1229,10 @@
       <c r="A6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="13"/>
       <c r="F6" s="13" t="s">
         <v>122</v>
@@ -1288,11 +1296,11 @@
         <v>127</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F9" s="13" t="s">
@@ -1326,10 +1334,10 @@
       <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="13"/>
       <c r="F10" s="13" t="s">
         <v>96</v>
@@ -1411,11 +1419,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="G16" t="s">
@@ -1610,7 +1618,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1621,16 +1629,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="13"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="13"/>
       <c r="K1" s="13" t="s">
         <v>126</v>
@@ -1829,11 +1837,11 @@
         <v>127</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F9" s="13" t="s">
@@ -1931,29 +1939,29 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="14"/>
       <c r="E16" s="18"/>
       <c r="F16" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="13">
         <f>G18</f>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>132</v>
@@ -1969,13 +1977,13 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="13">
         <f>H18</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>133</v>
@@ -1984,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="H18" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="13">
         <f>G18*L2+H18*M2</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>131</v>
@@ -2009,13 +2017,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="13">
         <f>G18*L3+H18*M3</f>
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>131</v>
@@ -2026,15 +2034,14 @@
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="13">
         <f>G18*(G6+G13) + H18*(H6+H13)</f>
-        <v>2425.6</v>
+        <v>2832</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>131</v>
@@ -2043,17 +2050,21 @@
         <f>K9</f>
         <v>2440</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21">
+        <f>G18*(B3-(G6+G13)+H18*(C3-(H6+H13)))</f>
+        <v>1007.9999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="13">
-        <f>G18*B3 - G18*(G6+G13) +H18*C3-H18*(H6+H13)</f>
-        <v>908.4</v>
+        <f>G18*B3+C3*H18</f>
+        <v>3840</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>133</v>
@@ -2065,20 +2076,18 @@
       <c r="F22" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22">
         <f>G18*(B3-G6)-G13 + H18*(C3-H6)-H13</f>
-        <v>1067.6000000000001</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1197.6000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B23" s="13">
         <f>G18</f>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>131</v>
@@ -2087,14 +2096,17 @@
         <f>B4</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="13">
         <f>H18</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>131</v>
@@ -2102,6 +2114,9 @@
       <c r="D24" s="13">
         <f>C4</f>
         <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1.xlsx
+++ b/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1.xlsx
@@ -8,67 +8,182 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\Курс 3\МО\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5723F-ED53-4B56-B34F-6FEA72CE2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAE3036-E241-4028-9FF6-0CB28E41EF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Расчёты" sheetId="3" r:id="rId1"/>
-    <sheet name="Ситуация 1. Бухгалтерская" sheetId="4" r:id="rId2"/>
-    <sheet name="Переменные" sheetId="2" r:id="rId3"/>
+    <sheet name="С 1.1 Бухгалтерская" sheetId="4" r:id="rId1"/>
+    <sheet name="С 1.2 Маржинальная" sheetId="5" r:id="rId2"/>
+    <sheet name="С 1.3 Маржинальная по маш. ч." sheetId="6" r:id="rId3"/>
+    <sheet name="C 2.1. Бухгалтерская" sheetId="7" r:id="rId4"/>
+    <sheet name="С 2.2 Маржинальная" sheetId="8" r:id="rId5"/>
+    <sheet name="С 2.3 Маржинальная по маш. ч." sheetId="9" r:id="rId6"/>
+    <sheet name="Переменные" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$G$18:$H$18</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$G$18:$H$18</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$G$18:$H$18</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$G$18:$H$18</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$20</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$22</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$23</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$24</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$B$24</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$20</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$20</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$20</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$21</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$21</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$21</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$22</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$23</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$23</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$23</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$24</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$24</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$24</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$25</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$B$25</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$B$25</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">9</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">9</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!#REF!</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$G$21</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$G$21</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$G$21</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$18</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$19</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$20</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$22</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$23</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$24</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Ситуация 1. Бухгалтерская'!$D$24</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$18</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$19</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$19</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$19</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$20</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$20</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$20</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$21</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$21</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$21</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$22</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$22</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$22</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$23</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$23</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$23</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$24</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$24</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$24</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$25</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'С 1.2 Маржинальная'!$D$25</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">'С 1.3 Маржинальная по маш. ч.'!$D$25</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="143">
   <si>
     <t>Исходные показатели</t>
   </si>
@@ -489,40 +604,37 @@
     <t>&lt;=</t>
   </si>
   <si>
-    <t>&gt; =</t>
-  </si>
-  <si>
     <t>&gt;=</t>
   </si>
   <si>
     <t>кг.</t>
   </si>
   <si>
-    <t>Цена</t>
-  </si>
-  <si>
     <t>Решение</t>
   </si>
   <si>
-    <t>Ц1</t>
-  </si>
-  <si>
-    <t>Ц2</t>
-  </si>
-  <si>
-    <t>кг. / день</t>
-  </si>
-  <si>
     <t>Маржинальная прибыль</t>
   </si>
   <si>
     <t>Бухгалтерская прибыль</t>
   </si>
   <si>
-    <t>Маржинальная прибыль по машино часам</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                        </t>
+  </si>
+  <si>
+    <t>Маш.-ч.</t>
+  </si>
+  <si>
+    <t>Чел.-ч.</t>
+  </si>
+  <si>
+    <t>Прямые</t>
+  </si>
+  <si>
+    <t>Косвенные</t>
+  </si>
+  <si>
+    <t>Маржинальная прибыль по маш. ч.</t>
   </si>
 </sst>
 </file>
@@ -697,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -760,6 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1040,589 +1153,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40DCD2F-2EA3-4BFF-91D2-6BEBAF55EC53}">
-  <dimension ref="A1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F0BCF-D22A-4815-A489-63459313543D}">
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="F2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="K2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="13">
-        <f>Переменные!R13</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="13">
-        <f>Переменные!R14</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="13">
-        <f>Переменные!R17</f>
-        <v>120</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="13">
-        <f>Переменные!R7</f>
-        <v>32</v>
-      </c>
-      <c r="C3" s="13">
-        <f>Переменные!R8</f>
-        <v>24.5</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="13">
-        <f>Переменные!R11*Переменные!R13 + Переменные!R11*Переменные!R14</f>
-        <v>9</v>
-      </c>
-      <c r="H3" s="13">
-        <f>Переменные!R12*Переменные!R15 + Переменные!R12*Переменные!R16</f>
-        <v>6</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="13">
-        <f>Переменные!R15</f>
-        <v>2</v>
-      </c>
-      <c r="M3" s="13">
-        <f>Переменные!R16</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="13">
-        <f>Переменные!R18</f>
-        <v>280</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="13">
-        <f>Переменные!R9</f>
-        <v>200</v>
-      </c>
-      <c r="C4" s="13">
-        <f>Переменные!R10</f>
-        <v>50</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="13">
-        <f>Переменные!R19*Переменные!R21</f>
-        <v>12</v>
-      </c>
-      <c r="H4" s="13">
-        <f>Переменные!R20*Переменные!R21</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F5" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="13">
-        <f>Переменные!R27*Переменные!R29</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <f>Переменные!R28*Переменные!R29</f>
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="N5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(G3:G5)</f>
-        <v>22</v>
-      </c>
-      <c r="H6" s="13">
-        <f>SUM(H3:H5)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="13">
-        <f>Переменные!R3</f>
-        <v>90</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="13">
-        <f>Переменные!R2</f>
-        <v>20</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="N8" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="13">
-        <f>Переменные!R30*Переменные!R29/N9*Переменные!R23</f>
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="13">
-        <f>Переменные!R30*Переменные!R29/Расчёты!N9*Переменные!R24</f>
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="13">
-        <f>Переменные!R22</f>
-        <v>2440</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="13">
-        <f>N6*Переменные!R4*Переменные!R5</f>
-        <v>480</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="17">
-        <f>Переменные!R31 / N9 * Переменные!R23</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <f>Переменные!R31 / Расчёты!N9 * Переменные!R24</f>
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="13">
-        <f>Переменные!R32 / Расчёты!N9 * Переменные!R23</f>
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="13">
-        <f>Переменные!R32 / Расчёты!N9 *Переменные!R24</f>
-        <v>0.15</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13">
-        <v>24.5</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="13">
-        <f>Переменные!R33 / Расчёты!N9 * Переменные!R23</f>
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="13">
-        <f>Переменные!R33 / Расчёты!N9 * Переменные!R24</f>
-        <v>0.05</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F13" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="13">
-        <f>SUM(G9:G12)</f>
-        <v>1.6</v>
-      </c>
-      <c r="H13" s="13">
-        <f>SUM(H9:H12)</f>
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="G16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="13">
-        <f>B8</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>24</v>
-      </c>
-      <c r="I17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="13">
-        <f>C8</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18">
-        <f>G17*N6</f>
-        <v>240</v>
-      </c>
-      <c r="H18">
-        <f>H17*N6</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="13">
-        <f>B8*L2+C8*M2</f>
-        <v>3</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="13">
-        <f>N2</f>
-        <v>120</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="13">
-        <f>B8*L3+C8*M3</f>
-        <v>3</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="13">
-        <f>N3</f>
-        <v>280</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="13">
-        <f>B8*(G6+G13) + C8*(H6+H13)</f>
-        <v>38.900000000000006</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="13">
-        <f>K9</f>
-        <v>2440</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="13">
-        <f>B8*B12 +C8*C12-B21</f>
-        <v>17.599999999999994</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="13">
-        <f>K6</f>
-        <v>90</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="13">
-        <f>B12</f>
-        <v>32</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="13">
-        <f>B4</f>
-        <v>200</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="13">
-        <f>C12</f>
-        <v>24.5</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="13">
-        <f>C4</f>
-        <v>50</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F0BCF-D22A-4815-A489-63459313543D}">
-  <dimension ref="A1:P24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
     <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1664,7 +1204,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>103</v>
@@ -1770,15 +1310,15 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F5" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G5" s="13">
-        <f>Переменные!R27*Переменные!R29</f>
-        <v>1</v>
+        <f>SUM(G3:G4)</f>
+        <v>21</v>
       </c>
       <c r="H5" s="13">
-        <f>Переменные!R28*Переменные!R29</f>
-        <v>0.5</v>
+        <f>SUM(H3:H4)</f>
+        <v>14</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>121</v>
@@ -1793,20 +1333,6 @@
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(G3:G5)</f>
-        <v>22</v>
-      </c>
-      <c r="H6" s="13">
-        <f>SUM(H3:H5)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="K6" s="13">
         <f>Переменные!R3</f>
         <v>90</v>
@@ -1822,17 +1348,33 @@
         <v>112</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="13">
+        <f>Переменные!R27*Переменные!R29</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <f>Переменные!R28*Переменные!R29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="K8" s="13" t="s">
         <v>127</v>
       </c>
@@ -1852,7 +1394,7 @@
         <v>0.2</v>
       </c>
       <c r="H9" s="13">
-        <f>Переменные!R30*Переменные!R29/Расчёты!N9*Переменные!R24</f>
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R24</f>
         <v>0.1</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -1883,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="13">
-        <f>Переменные!R31 / Расчёты!N9 * Переменные!R24</f>
+        <f>Переменные!R31 / N9 * Переменные!R24</f>
         <v>0.5</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -1895,11 +1437,11 @@
         <v>119</v>
       </c>
       <c r="G11" s="13">
-        <f>Переменные!R32 / Расчёты!N9 * Переменные!R23</f>
+        <f>Переменные!R32 / N9 * Переменные!R23</f>
         <v>0.3</v>
       </c>
       <c r="H11" s="13">
-        <f>Переменные!R32 / Расчёты!N9 *Переменные!R24</f>
+        <f>Переменные!R32 / N9 *Переменные!R24</f>
         <v>0.15</v>
       </c>
       <c r="I11" s="13" t="s">
@@ -1911,11 +1453,11 @@
         <v>120</v>
       </c>
       <c r="G12" s="13">
-        <f>Переменные!R33 / Расчёты!N9 * Переменные!R23</f>
+        <f>Переменные!R33 / N9 * Переменные!R23</f>
         <v>0.1</v>
       </c>
       <c r="H12" s="13">
-        <f>Переменные!R33 / Расчёты!N9 * Переменные!R24</f>
+        <f>Переменные!R33 / N9 * Переменные!R24</f>
         <v>0.05</v>
       </c>
       <c r="I12" s="13" t="s">
@@ -1927,12 +1469,12 @@
         <v>123</v>
       </c>
       <c r="G13" s="13">
-        <f>SUM(G9:G12)</f>
-        <v>1.6</v>
+        <f>SUM(G8:G12)</f>
+        <v>2.6</v>
       </c>
       <c r="H13" s="13">
-        <f>SUM(H9:H12)</f>
-        <v>0.8</v>
+        <f>SUM(H8:H12)</f>
+        <v>1.3</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>121</v>
@@ -1947,7 +1489,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="18"/>
       <c r="F16" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>130</v>
@@ -1961,7 +1503,7 @@
       </c>
       <c r="B17" s="13">
         <f>G18</f>
-        <v>120</v>
+        <v>119.99999977791845</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>132</v>
@@ -1986,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <v>120</v>
+        <v>119.99999977791845</v>
       </c>
       <c r="H18" s="13">
         <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2007,7 +1549,7 @@
       </c>
       <c r="B19" s="13">
         <f>G18*L2+H18*M2</f>
-        <v>120</v>
+        <v>119.99999977791845</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>131</v>
@@ -2023,7 +1565,7 @@
       </c>
       <c r="B20" s="13">
         <f>G18*L3+H18*M3</f>
-        <v>240</v>
+        <v>239.99999955583689</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>131</v>
@@ -2037,86 +1579,92 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="13">
-        <f>G18*(G6+G13) + H18*(H6+H13)</f>
-        <v>2832</v>
+        <f>G21</f>
+        <v>1007.9999981345147</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" s="13">
-        <f>K9</f>
-        <v>2440</v>
-      </c>
-      <c r="F21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21">
-        <f>G18*(B3-(G6+G13)+H18*(C3-(H6+H13)))</f>
-        <v>1007.9999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="13">
-        <f>G18*B3+C3*H18</f>
-        <v>3840</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="13">
         <f>K6</f>
         <v>90</v>
       </c>
-      <c r="F22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22">
-        <f>G18*(B3-G6)-G13 + H18*(C3-H6)-H13</f>
-        <v>1197.6000000000001</v>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21">
+        <f>G18*(B3-(G5+G13))+H18*(C3-(H5+H13))</f>
+        <v>1007.9999981345147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="13">
+        <f>2*G18 + 1 *H18</f>
+        <v>239.99999955583689</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="13">
+        <f>N9</f>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="13">
+        <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
+        <v>359.99999933375534</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B24" s="13">
         <f>G18</f>
-        <v>120</v>
-      </c>
-      <c r="C23" s="13" t="s">
+        <v>119.99999977791845</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <f>B4</f>
         <v>200</v>
       </c>
-      <c r="F23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B25" s="13">
         <f>H18</f>
         <v>0</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <f>C4</f>
         <v>50</v>
-      </c>
-      <c r="K24" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2132,12 +1680,2641 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D0C0E8-0E50-401C-94F2-840066FD8D19}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="13">
+        <f>Переменные!R13</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <f>Переменные!R14</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <f>Переменные!R17</f>
+        <v>120</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13">
+        <f>Переменные!R7</f>
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <f>Переменные!R8</f>
+        <v>24.5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="13">
+        <f>Переменные!R11*Переменные!R13 + Переменные!R11*Переменные!R14</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Переменные!R12*Переменные!R15 + Переменные!R12*Переменные!R16</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="13">
+        <f>Переменные!R15</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <f>Переменные!R16</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <f>Переменные!R18</f>
+        <v>280</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13">
+        <f>Переменные!R9</f>
+        <v>200</v>
+      </c>
+      <c r="C4" s="13">
+        <f>Переменные!R10</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="13">
+        <f>Переменные!R19*Переменные!R21</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Переменные!R20*Переменные!R21</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="13">
+        <f>Переменные!R27*Переменные!R29</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Переменные!R28*Переменные!R29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(G3:G5)</f>
+        <v>22</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(H3:H5)</f>
+        <v>14.5</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="13">
+        <f>Переменные!R3</f>
+        <v>90</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="13">
+        <f>Переменные!R2</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="N8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R23</f>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R24</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="13">
+        <f>Переменные!R22</f>
+        <v>2440</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="13">
+        <f>N6*Переменные!R4*Переменные!R5</f>
+        <v>480</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="17">
+        <f>Переменные!R31 / N9 * Переменные!R23</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f>Переменные!R31 / N9 * Переменные!R24</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="13">
+        <f>Переменные!R32 / N9 * Переменные!R23</f>
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="13">
+        <f>Переменные!R32 / N9 *Переменные!R24</f>
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R23</f>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R24</f>
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13">
+        <f>SUM(G9:G12)</f>
+        <v>1.6</v>
+      </c>
+      <c r="H13" s="13">
+        <f>SUM(H9:H12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13">
+        <f>G18</f>
+        <v>120</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="13">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>120</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <f>G18*L2+H18*M2</f>
+        <v>120</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="13">
+        <f>N2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13">
+        <f>G18*L3+H18*M3</f>
+        <v>240</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="13">
+        <f>N3</f>
+        <v>280</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="13">
+        <f>G21</f>
+        <v>1200</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="13">
+        <f>K6+Переменные!R30*Переменные!R29+Переменные!R31+Переменные!R32+Переменные!R33</f>
+        <v>474</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21">
+        <f>G18*(B3-G6) + H18*(C3-H6)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="13">
+        <f>2*G18 + 1 *H18</f>
+        <v>240</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="13">
+        <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
+        <v>360</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13">
+        <f>G18</f>
+        <v>120</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="13">
+        <f>B4</f>
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="13">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C4</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665EA7E9-D282-430A-9004-459D57B9178E}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="13">
+        <f>Переменные!R13</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <f>Переменные!R14</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <f>Переменные!R17</f>
+        <v>120</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13">
+        <f>Переменные!R7</f>
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <f>Переменные!R8</f>
+        <v>24.5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="13">
+        <f>Переменные!R11*Переменные!R13 + Переменные!R11*Переменные!R14</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Переменные!R12*Переменные!R15 + Переменные!R12*Переменные!R16</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="13">
+        <f>Переменные!R15</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <f>Переменные!R16</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <f>Переменные!R18</f>
+        <v>280</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13">
+        <f>Переменные!R9</f>
+        <v>200</v>
+      </c>
+      <c r="C4" s="13">
+        <f>Переменные!R10</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="13">
+        <f>Переменные!R19*Переменные!R21</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Переменные!R20*Переменные!R21</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="13">
+        <f>Переменные!R27*Переменные!R29</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Переменные!R28*Переменные!R29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(G3:G5)</f>
+        <v>22</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(H3:H5)</f>
+        <v>14.5</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="13">
+        <f>Переменные!R3</f>
+        <v>90</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="13">
+        <f>Переменные!R2</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="N8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R23</f>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R24</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="13">
+        <f>Переменные!R22</f>
+        <v>2440</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="13">
+        <f>N6*Переменные!R4*Переменные!R5</f>
+        <v>480</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="17">
+        <f>Переменные!R31 / N9 * Переменные!R23</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f>Переменные!R31 / N9 * Переменные!R24</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="13">
+        <f>Переменные!R32 / N9 * Переменные!R23</f>
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="13">
+        <f>Переменные!R32 / N9 *Переменные!R24</f>
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="13">
+        <f>Переменные!R33 /N9 * Переменные!R23</f>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R24</f>
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13">
+        <f>SUM(G9:G12)</f>
+        <v>1.6</v>
+      </c>
+      <c r="H13" s="13">
+        <f>SUM(H9:H12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13">
+        <f>G18</f>
+        <v>24</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="13">
+        <f>H18</f>
+        <v>48</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>24</v>
+      </c>
+      <c r="H18" s="13">
+        <v>48</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <f>G18*L2+H18*M2</f>
+        <v>120</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="13">
+        <f>N2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13">
+        <f>G18*L3+H18*M3</f>
+        <v>96</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="13">
+        <f>N3</f>
+        <v>280</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="13">
+        <f>G21</f>
+        <v>600</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="13">
+        <f>K6+Переменные!R30*Переменные!R29+Переменные!R31+Переменные!R32+Переменные!R33</f>
+        <v>474</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21">
+        <f>G18*((B3-G6)/Переменные!R23) + H18*((C3-H6)/Переменные!R24)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="13">
+        <f>2*G18 + 1 *H18</f>
+        <v>96</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="13">
+        <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
+        <v>72</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13">
+        <f>G18</f>
+        <v>24</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="13">
+        <f>B4</f>
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="13">
+        <f>H18</f>
+        <v>48</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C4</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAD7F15-E31E-48C1-83B8-34ECDD805311}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="13">
+        <f>Переменные!R13</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <f>Переменные!R14</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <f>Переменные!R17</f>
+        <v>120</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13">
+        <f>Переменные!R7</f>
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <f>Переменные!R8</f>
+        <v>24.5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="13">
+        <f>Переменные!R11*Переменные!R13 + Переменные!R11*Переменные!R14</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Переменные!R12*Переменные!R15 + Переменные!R12*Переменные!R16</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="13">
+        <f>Переменные!R15</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <f>Переменные!R16</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <f>Переменные!R18</f>
+        <v>280</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13">
+        <f>Переменные!R9</f>
+        <v>200</v>
+      </c>
+      <c r="C4" s="13">
+        <f>Переменные!R10</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="13">
+        <f>Переменные!R19*Переменные!R21</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Переменные!R20*Переменные!R21</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="13">
+        <f>SUM(G3:G4)</f>
+        <v>21</v>
+      </c>
+      <c r="H5" s="13">
+        <f>SUM(H3:H4)</f>
+        <v>14</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="13">
+        <f>Переменные!R3</f>
+        <v>90</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="13">
+        <f>Переменные!R2</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="13">
+        <f>Переменные!R27*Переменные!R29</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <f>Переменные!R28*Переменные!R29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="N8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R23</f>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R24</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="13">
+        <f>Переменные!R22</f>
+        <v>2440</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="13">
+        <f>N6*Переменные!R4*Переменные!R5</f>
+        <v>480</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="17">
+        <f>Переменные!R31 / N9 * Переменные!R23</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f>Переменные!R31 / N9 * Переменные!R24</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="13">
+        <f>Переменные!R32 / N9 * Переменные!R23</f>
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="13">
+        <f>Переменные!R32 / N9 *Переменные!R24</f>
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R23</f>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R24</f>
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13">
+        <f>SUM(G8:G12)</f>
+        <v>2.6</v>
+      </c>
+      <c r="H13" s="13">
+        <f>SUM(H8:H12)</f>
+        <v>1.3</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13">
+        <f>G18</f>
+        <v>119.99999977791845</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="13">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>119.99999977791845</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <f>G18*L2+H18*M2</f>
+        <v>119.99999977791845</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="13">
+        <f>N2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13">
+        <f>G18*L3+H18*M3</f>
+        <v>239.99999955583689</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="13">
+        <f>N3</f>
+        <v>280</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="13">
+        <f>G21</f>
+        <v>1007.9999981345147</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="13">
+        <f>K6</f>
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21">
+        <f>G18*(B3-(G5+G13))+H18*(C3-(H5+H13))</f>
+        <v>1007.9999981345147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="13">
+        <f>2*G18 + 1 *H18</f>
+        <v>239.99999955583689</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="13">
+        <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
+        <v>359.99999933375534</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13">
+        <f>G18</f>
+        <v>119.99999977791845</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="13">
+        <f>B4</f>
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="13">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C4</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C321C590-6A09-4F82-8712-303266710089}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="13">
+        <f>Переменные!R13</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <f>Переменные!R14</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <f>Переменные!R17</f>
+        <v>120</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13">
+        <f>Переменные!R7</f>
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <f>Переменные!R8</f>
+        <v>24.5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="13">
+        <f>Переменные!R11*Переменные!R13 + Переменные!R11*Переменные!R14</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Переменные!R12*Переменные!R15 + Переменные!R12*Переменные!R16</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="13">
+        <f>Переменные!R15</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <f>Переменные!R16</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <f>Переменные!R18</f>
+        <v>280</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13">
+        <f>Переменные!R9</f>
+        <v>200</v>
+      </c>
+      <c r="C4" s="13">
+        <f>Переменные!R10</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="13">
+        <f>Переменные!R19*Переменные!R21</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Переменные!R20*Переменные!R21</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="13">
+        <f>Переменные!R27*Переменные!R29</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Переменные!R28*Переменные!R29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(G3:G5)</f>
+        <v>22</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(H3:H5)</f>
+        <v>14.5</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="13">
+        <f>Переменные!R3</f>
+        <v>90</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="13">
+        <f>Переменные!R2</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="N8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R23</f>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R24</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="13">
+        <f>Переменные!R22</f>
+        <v>2440</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="13">
+        <f>N6*Переменные!R4*Переменные!R5</f>
+        <v>480</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="17">
+        <f>Переменные!R31 / N9 * Переменные!R23</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f>Переменные!R31 / N9 * Переменные!R24</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="13">
+        <f>Переменные!R32 / N9 * Переменные!R23</f>
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="13">
+        <f>Переменные!R32 / N9 *Переменные!R24</f>
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R23</f>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R24</f>
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13">
+        <f>SUM(G9:G12)</f>
+        <v>1.6</v>
+      </c>
+      <c r="H13" s="13">
+        <f>SUM(H9:H12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13">
+        <f>G18</f>
+        <v>120</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="13">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>120</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <f>G18*L2+H18*M2</f>
+        <v>120</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="13">
+        <f>N2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13">
+        <f>G18*L3+H18*M3</f>
+        <v>240</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="13">
+        <f>N3</f>
+        <v>280</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="13">
+        <f>G21</f>
+        <v>1200</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="13">
+        <f>K6+Переменные!R30*Переменные!R29+Переменные!R31+Переменные!R32+Переменные!R33</f>
+        <v>474</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21">
+        <f>G18*(B3-G6) + H18*(C3-H6)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="13">
+        <f>2*G18 + 1 *H18</f>
+        <v>240</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="13">
+        <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
+        <v>360</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13">
+        <f>G18</f>
+        <v>120</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="13">
+        <f>B4</f>
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="13">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C4</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136D2DCD-5253-4F99-83E0-C19A459E0660}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="13">
+        <f>Переменные!R13</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <f>Переменные!R14</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <f>Переменные!R17</f>
+        <v>120</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13">
+        <f>Переменные!R7</f>
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <f>Переменные!R8</f>
+        <v>24.5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="13">
+        <f>Переменные!R11*Переменные!R13 + Переменные!R11*Переменные!R14</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Переменные!R12*Переменные!R15 + Переменные!R12*Переменные!R16</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="13">
+        <f>Переменные!R15</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <f>Переменные!R16</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <f>Переменные!R18</f>
+        <v>280</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13">
+        <f>Переменные!R9</f>
+        <v>200</v>
+      </c>
+      <c r="C4" s="13">
+        <f>Переменные!R10</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="13">
+        <f>Переменные!R19*Переменные!R21</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Переменные!R20*Переменные!R21</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="13">
+        <f>Переменные!R27*Переменные!R29</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Переменные!R28*Переменные!R29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(G3:G5)</f>
+        <v>22</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(H3:H5)</f>
+        <v>14.5</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="13">
+        <f>Переменные!R3</f>
+        <v>90</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="13">
+        <f>Переменные!R2</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="N8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R23</f>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <f>Переменные!R30*Переменные!R29/N9*Переменные!R24</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="13">
+        <f>Переменные!R22</f>
+        <v>2440</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="13">
+        <f>N6*Переменные!R4*Переменные!R5</f>
+        <v>480</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="17">
+        <f>Переменные!R31 / N9 * Переменные!R23</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f>Переменные!R31 / N9 * Переменные!R24</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="13">
+        <f>Переменные!R32 / N9 * Переменные!R23</f>
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="13">
+        <f>Переменные!R32 / N9 *Переменные!R24</f>
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="13">
+        <f>Переменные!R33 /N9 * Переменные!R23</f>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <f>Переменные!R33 / N9 * Переменные!R24</f>
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13">
+        <f>SUM(G9:G12)</f>
+        <v>1.6</v>
+      </c>
+      <c r="H13" s="13">
+        <f>SUM(H9:H12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13">
+        <f>G18</f>
+        <v>24</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="13">
+        <f>H18</f>
+        <v>48</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>24</v>
+      </c>
+      <c r="H18" s="13">
+        <v>48</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <f>G18*L2+H18*M2</f>
+        <v>120</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="13">
+        <f>N2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13">
+        <f>G18*L3+H18*M3</f>
+        <v>96</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="13">
+        <f>N3</f>
+        <v>280</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="13">
+        <f>G21</f>
+        <v>600</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="13">
+        <f>K6+Переменные!R30*Переменные!R29+Переменные!R31+Переменные!R32+Переменные!R33</f>
+        <v>474</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21">
+        <f>G18*((B3-G6)/Переменные!R23) + H18*((C3-H6)/Переменные!R24)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="13">
+        <f>2*G18 + 1 *H18</f>
+        <v>96</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="13">
+        <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
+        <v>72</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13">
+        <f>G18</f>
+        <v>24</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="13">
+        <f>B4</f>
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="13">
+        <f>H18</f>
+        <v>48</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C4</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE5B83-6808-4823-8483-CC874B6076B2}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
